--- a/docs/StructureDefinition-VAMedicationAdministration.xlsx
+++ b/docs/StructureDefinition-VAMedicationAdministration.xlsx
@@ -342,6 +342,33 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>medicationadministration-statusDetail</t>
+  </si>
+  <si>
+    <t>ACTION STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationadministration-statusDetail}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>BCMA MEDICATION LOG @ACTION STATUS 53.79-.09b</t>
+  </si>
+  <si>
     <t>medicationadministration-scheduledTime</t>
   </si>
   <si>
@@ -352,37 +379,10 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
     <t>If a continuous order this field will contain the actual administration date and time the medication was ordered for.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>BCMA MEDICATION LOG @SCHEDULED ADMINISTRATION TIME 53.79-.13</t>
-  </si>
-  <si>
-    <t>medicationadministration-statusDetail</t>
-  </si>
-  <si>
-    <t>ACTION STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationadministration-statusDetail}
-</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t>BCMA MEDICATION LOG @ACTION STATUS 53.79-.09b</t>
   </si>
   <si>
     <t>MedicationAdministration.modifierExtension</t>
@@ -3088,7 +3088,7 @@
         <v>42</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s" s="2">
         <v>53</v>
